--- a/data/long_razon/P24_7-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_7-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-47,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 472,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 403,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 294,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 13,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 260,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 78,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 255,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 64,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 95,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 50,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 101,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 25,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-20,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 86,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 199,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 97,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 83,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 60,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 90,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 187,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 148,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 100,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 98,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 93,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 87,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 175,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 70,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-55,01; 31,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 86,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 46,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 51,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>114,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-45,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 710,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 233,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,29; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 239,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 97,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 145,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,43 +1345,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 94,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 70,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 23,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 41,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 43,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 43,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
